--- a/.estadisticaentorno/uploads/Datos_demograficos.xlsx
+++ b/.estadisticaentorno/uploads/Datos_demograficos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5TO SEMESTRE\ESTADISTICA II\proyectoestadistica2.0\.estadisticaentorno\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7865C9-10F9-41CE-A01D-1CA58FF0F0A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B476E15-4D76-440B-A302-9CAA2DF843A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="122" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="122" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,43 +525,43 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>44</v>
+      </c>
+      <c r="F2">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
       <c r="G2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
